--- a/samples/SA-عينة-منتجات-السوبرماركت-preview.xlsx
+++ b/samples/SA-عينة-منتجات-السوبرماركت-preview.xlsx
@@ -2035,235 +2035,180 @@
     <t>Berain</t>
   </si>
   <si>
-    <t>أهم المميزات
-إ...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-I...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-ل...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-م...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-ت...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-ج...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
- ...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-E...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-F...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-W...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-T...</t>
-  </si>
-  <si>
-    <t>أهم المميزات
-M...</t>
-  </si>
-  <si>
-    <t>highlights
-Exp...</t>
-  </si>
-  <si>
-    <t>highlights
-It ...</t>
-  </si>
-  <si>
-    <t>highlights
-For...</t>
-  </si>
-  <si>
-    <t>highlights
-To ...</t>
-  </si>
-  <si>
-    <t>highlights
-Lux...</t>
-  </si>
-  <si>
-    <t>highlights
-Col...</t>
-  </si>
-  <si>
-    <t>highlights
-Enh...</t>
-  </si>
-  <si>
-    <t>highlights
-Eas...</t>
-  </si>
-  <si>
-    <t>highlights
-P...</t>
-  </si>
-  <si>
-    <t>highlights
-Fro...</t>
-  </si>
-  <si>
-    <t>highlights
-Wit...</t>
-  </si>
-  <si>
-    <t>highlights
-Eac...</t>
-  </si>
-  <si>
-    <t>highlights
-Thi...</t>
-  </si>
-  <si>
-    <t>highlights
-Mad...</t>
-  </si>
-  <si>
-    <t>highlights
-Mai...</t>
-  </si>
-  <si>
-    <t>وصف
-It cleans ...</t>
-  </si>
-  <si>
-    <t>وصف
-أن تركيبة ...</t>
-  </si>
-  <si>
-    <t>وصف
-يحتوي مقيا...</t>
-  </si>
-  <si>
-    <t>وصف
-Made from ...</t>
-  </si>
-  <si>
-    <t>وصف
-The perfec...</t>
-  </si>
-  <si>
-    <t>وصف
-Indulge in...</t>
-  </si>
-  <si>
-    <t>وصف
-Ziadah Coa...</t>
-  </si>
-  <si>
-    <t>وصف
-الكافيين ،...</t>
-  </si>
-  <si>
-    <t>وصف
-ماء مكربن ...</t>
-  </si>
-  <si>
-    <t>وصف
-مياه معدني...</t>
-  </si>
-  <si>
-    <t>وصف
-S Refill P...</t>
+    <t>أهم المميزات إ...</t>
+  </si>
+  <si>
+    <t>أهم المميزات I...</t>
+  </si>
+  <si>
+    <t>أهم المميزات ل...</t>
+  </si>
+  <si>
+    <t>أهم المميزات م...</t>
+  </si>
+  <si>
+    <t>أهم المميزات ت...</t>
+  </si>
+  <si>
+    <t>أهم المميزات ج...</t>
+  </si>
+  <si>
+    <t>أهم المميزات  ...</t>
+  </si>
+  <si>
+    <t>أهم المميزات E...</t>
+  </si>
+  <si>
+    <t>أهم المميزات F...</t>
+  </si>
+  <si>
+    <t>أهم المميزات W...</t>
+  </si>
+  <si>
+    <t>أهم المميزات T...</t>
+  </si>
+  <si>
+    <t>أهم المميزات M...</t>
+  </si>
+  <si>
+    <t>highlights Exp...</t>
+  </si>
+  <si>
+    <t>highlights It ...</t>
+  </si>
+  <si>
+    <t>highlights For...</t>
+  </si>
+  <si>
+    <t>highlights To ...</t>
+  </si>
+  <si>
+    <t>highlights Lux...</t>
+  </si>
+  <si>
+    <t>highlights Col...</t>
+  </si>
+  <si>
+    <t>highlights Enh...</t>
+  </si>
+  <si>
+    <t>highlights Eas...</t>
+  </si>
+  <si>
+    <t>highlights   P...</t>
+  </si>
+  <si>
+    <t>highlights Fro...</t>
+  </si>
+  <si>
+    <t>highlights Wit...</t>
+  </si>
+  <si>
+    <t>highlights Eac...</t>
+  </si>
+  <si>
+    <t>highlights Thi...</t>
+  </si>
+  <si>
+    <t>highlights Mad...</t>
+  </si>
+  <si>
+    <t>highlights Mai...</t>
+  </si>
+  <si>
+    <t>وصف It cleans ...</t>
+  </si>
+  <si>
+    <t>وصف أن تركيبة ...</t>
+  </si>
+  <si>
+    <t>وصف يحتوي مقيا...</t>
+  </si>
+  <si>
+    <t>وصف Made from ...</t>
+  </si>
+  <si>
+    <t>وصف The perfec...</t>
+  </si>
+  <si>
+    <t>وصف Indulge in...</t>
+  </si>
+  <si>
+    <t>وصف Ziadah Coa...</t>
+  </si>
+  <si>
+    <t>وصف الكافيين ،...</t>
+  </si>
+  <si>
+    <t>وصف ماء مكربن ...</t>
+  </si>
+  <si>
+    <t>وصف مياه معدني...</t>
+  </si>
+  <si>
+    <t>وصف S Refill P...</t>
   </si>
   <si>
     <t>وصف
 s</t>
   </si>
   <si>
-    <t>DESCRIPTION
-It...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-De...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-Ju...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-Ma...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-Th...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-In...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-Zi...</t>
-  </si>
-  <si>
-    <t>DESCRIPTION
-S ...</t>
+    <t>DESCRIPTION It...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION De...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION Ju...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION Ma...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION Th...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION In...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION Zi...</t>
+  </si>
+  <si>
+    <t>DESCRIPTION S ...</t>
   </si>
   <si>
     <t>DESCRIPTION
 s</t>
   </si>
   <si>
-    <t>حقائق غذائية
-ا...</t>
-  </si>
-  <si>
-    <t>وصف
-حقائق غذائ...</t>
+    <t>حقائق غذائية ا...</t>
+  </si>
+  <si>
+    <t>وصف حقائق غذائ...</t>
   </si>
   <si>
     <t>Nutrition fact...</t>
   </si>
   <si>
-    <t>DESCRIPTION
-Nu...</t>
-  </si>
-  <si>
-    <t>معلومات 
-المكو...</t>
-  </si>
-  <si>
-    <t>معلومات 
-شروط ...</t>
-  </si>
-  <si>
-    <t>معلومات 
-معلوم...</t>
-  </si>
-  <si>
-    <t>INFORMATION
-In...</t>
-  </si>
-  <si>
-    <t>INFORMATION
-St...</t>
-  </si>
-  <si>
-    <t>INFORMATION
-Al...</t>
+    <t>DESCRIPTION Nu...</t>
+  </si>
+  <si>
+    <t>معلومات  المكو...</t>
+  </si>
+  <si>
+    <t>معلومات  شروط ...</t>
+  </si>
+  <si>
+    <t>معلومات  معلوم...</t>
+  </si>
+  <si>
+    <t>INFORMATION In...</t>
+  </si>
+  <si>
+    <t>INFORMATION St...</t>
+  </si>
+  <si>
+    <t>INFORMATION Al...</t>
   </si>
   <si>
     <t>https://raw.gi...</t>
